--- a/cropped_and_labeled_image_data/2018_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2018_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,2004 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1_P10_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P10_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F2_P16_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P16_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F3_P22_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P22_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F2_P27_Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P27_Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F1_P13_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P13_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F2_P17_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P17_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F3_P28_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P28_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DiBenigno_2018_ASQ_Anchored Personalization in Managing Goal Conflict.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F1_P28_DiBenigno_2018_ASQ_Anchored Personalization in Managing Goal Conflict.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P28_DiBenigno_2018_ASQ_Anchored Personalization in Managing Goal Conflict.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F2_P19_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P19_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dupret_2018_OrgStudies_Performative Silences.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F1_P8_Dupret_2018_OrgStudies_Performative Silences.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P8_Dupret_2018_OrgStudies_Performative Silences.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dupret_2018_OrgStudies_Performative Silences.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F3_P15_Dupret_2018_OrgStudies_Performative Silences.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P15_Dupret_2018_OrgStudies_Performative Silences.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1_P6_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P6_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F2_P10_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P10_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F3_P11_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P11_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F4_P15_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F4_P15_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F2_P11_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P11_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F3_P11_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P11_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F3_P12_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P12_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Follmer et al._2018_AMJ_Resolution, Relief and Resignation.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F2_P8_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P8_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F1_P14_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P14_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F2_P15_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P15_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F3_P16_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P16_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F4_P17_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E24" t="n">
+        <v>18</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F4_P17_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F5_P18_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F5_P18_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F6_P21_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F6_P21_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F7_P25_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E27" t="n">
+        <v>26</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F7_P25_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F8_P27_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E28" t="n">
+        <v>28</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F8_P27_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F9_P32_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E29" t="n">
+        <v>33</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F9_P32_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F1_P15_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P15_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F2_P24_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E31" t="n">
+        <v>25</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P24_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F3_P29_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P29_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F2_P21_Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P21_Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F1_P1_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P1_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F2_P9_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P9_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>F3_P14_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E36" t="n">
+        <v>15</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P14_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Lifshitz-Assaf_2018_ASQ_Dismantling Knowledge Boundaries at NASA The Critical Role of Professional Identity in Open Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>F1_P22_Lifshitz-Assaf_2018_ASQ_Dismantling Knowledge Boundaries at NASA The Critical Role of Professional Identity in Open Innovation.png</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P22_Lifshitz-Assaf_2018_ASQ_Dismantling Knowledge Boundaries at NASA The Critical Role of Professional Identity in Open Innovation.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>F2_P15_Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.png</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P15_Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mellewigt, Hoetker &amp; Lutkewitte_2018_OrgSci_Avoiding High Opportunism is Easy.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>F1_P6_Mellewigt, Hoetker &amp; Lutkewitte_2018_OrgSci_Avoiding High Opportunism is Easy.png</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P6_Mellewigt, Hoetker &amp; Lutkewitte_2018_OrgSci_Avoiding High Opportunism is Easy.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Petriglieri et al._2018_ASQ_Fast Tracks and Portable Selves for Contemporary Careers.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>F1_P30_Petriglieri et al._2018_ASQ_Fast Tracks and Portable Selves for Contemporary Careers.png</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P30_Petriglieri et al._2018_ASQ_Fast Tracks and Portable Selves for Contemporary Careers.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>F1_P5_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P5_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>F2_P6_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P6_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>F3_P9_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P9_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>F1_P7_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P7_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>F2_P16_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E45" t="n">
+        <v>17</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P16_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>F3_P20_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F3_P20_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_Train them to Retain Them.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>F2_P15_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P15_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_Train them to Retain Them.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>F2_P16_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E48" t="n">
+        <v>17</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P16_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Reinecke_2018_OrgStudies_Social Movements and Prefigurative Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>F1_P14_Reinecke_2018_OrgStudies_Social Movements and Prefigurative Organizing.png</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P14_Reinecke_2018_OrgStudies_Social Movements and Prefigurative Organizing.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>F1_P15_Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.png</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P15_Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>F2_P27_Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.png</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E51" t="n">
+        <v>28</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P27_Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Valentine_2018_AMJ_When Equity Seems Unfair.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>F1_P18_Valentine_2018_AMJ_When Equity Seems Unfair.png</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P18_Valentine_2018_AMJ_When Equity Seems Unfair.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Valentine_2018_ASQ_Renegotiating Spheres of Obligation - The Role of Hierarchy in Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>F1_P11_Valentine_2018_ASQ_Renegotiating Spheres of Obligation - The Role of Hierarchy in Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P11_Valentine_2018_ASQ_Renegotiating Spheres of Obligation - The Role of Hierarchy in Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>F1_P8_Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.png</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P8_Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>F2_P15_Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.png</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E55" t="n">
+        <v>16</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F2_P15_Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2018_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2018_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,6 +2478,561 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>F1_P10_Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.png</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P10_Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Bruning &amp; Campion_2018_AMJ_Role Resource Approach Avoidance Model of Job Crafting.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>F1_P10_Bruning &amp; Campion_2018_AMJ_Role Resource Approach Avoidance Model of Job Crafting.png</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E57" t="n">
+        <v>11</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P10_Bruning &amp; Campion_2018_AMJ_Role Resource Approach Avoidance Model of Job Crafting.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>F1_P17_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E58" t="n">
+        <v>18</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P17_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Dwivedi, Joshi &amp; Misangyi_2018_AMJ_Gender Inclusive Gatekeeping.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>F1_P20_Dwivedi, Joshi &amp; Misangyi_2018_AMJ_Gender Inclusive Gatekeeping.png</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E59" t="n">
+        <v>21</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P20_Dwivedi, Joshi &amp; Misangyi_2018_AMJ_Gender Inclusive Gatekeeping.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>F1_P3_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P3_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>F1_P7_Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.png</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P7_Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Follmer et al._2018_AMJ_Resolution, Relief and Resignation.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>F1_P3_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P3_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>F1_P11_Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.png</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P11_Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>F1_P14_Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.png</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E64" t="n">
+        <v>15</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P14_Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Mazmanian &amp; Beckman_2018_OrgSci_Making Your Numbers - Engendering Organizational Control Through a Ritual of Quantification.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>F1_P11_Mazmanian &amp; Beckman_2018_OrgSci_Making Your Numbers - Engendering Organizational Control Through a Ritual of Quantification.png</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P11_Mazmanian &amp; Beckman_2018_OrgSci_Making Your Numbers - Engendering Organizational Control Through a Ritual of Quantification.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Pazzaglia et al._2018_HR_Keeping up with the Joneses.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>F1_P8_Pazzaglia et al._2018_HR_Keeping up with the Joneses.png</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P8_Pazzaglia et al._2018_HR_Keeping up with the Joneses.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_Train them to Retain Them.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>F1_P15_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E67" t="n">
+        <v>16</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P15_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Schepker et al_2018_AMJ_Planning for Future Leadership.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>F1_P3_Schepker et al_2018_AMJ_Planning for Future Leadership.png</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P3_Schepker et al_2018_AMJ_Planning for Future Leadership.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Soundararajan, Khan &amp; Tarba_2018_HR_Beyond Brokering.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>F1_P13_Soundararajan, Khan &amp; Tarba_2018_HR_Beyond Brokering.png</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P13_Soundararajan, Khan &amp; Tarba_2018_HR_Beyond Brokering.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Spektor et al._2018_AMJ_Microfoundations of Organizational Paradox The Problem is How we Think about the Problem.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>F1_P11_Spektor et al._2018_AMJ_Microfoundations of Organizational Paradox The Problem is How we Think about the Problem.png</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>final_figures/2018/F1_P11_Spektor et al._2018_AMJ_Microfoundations of Organizational Paradox The Problem is How we Think about the Problem.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2018_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2018_cropped_and_labeled_figs.xlsx
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>line graph</t>
         </is>
       </c>
       <c r="I64" t="b">

--- a/cropped_and_labeled_image_data/2018_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2018_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,9 +542,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,9 +576,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -624,9 +610,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,9 +644,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -698,9 +678,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,9 +712,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,9 +746,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,9 +780,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -843,11 +811,8 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -880,11 +845,8 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -917,11 +879,8 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -957,9 +916,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,9 +950,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,9 +984,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1065,11 +1015,8 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1102,11 +1049,8 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1142,9 +1086,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,9 +1120,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1216,9 +1154,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1253,9 +1188,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1290,9 +1222,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1327,9 +1256,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1364,9 +1290,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1401,9 +1324,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1438,9 +1358,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1475,9 +1392,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1512,9 +1426,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1549,9 +1460,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1586,9 +1494,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1623,9 +1528,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1660,9 +1562,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1697,9 +1596,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1731,11 +1627,8 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1771,9 +1664,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1808,9 +1698,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1845,9 +1732,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1879,11 +1763,8 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1919,9 +1800,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1956,9 +1834,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1993,9 +1868,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2030,9 +1902,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2067,9 +1936,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2101,11 +1967,8 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2138,11 +2001,8 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2175,11 +2035,8 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2212,11 +2069,8 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2252,9 +2106,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2289,9 +2140,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2326,9 +2174,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2363,9 +2208,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2400,9 +2242,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2437,9 +2276,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2474,9 +2310,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2508,11 +2341,8 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2548,9 +2378,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2585,9 +2412,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2622,9 +2446,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2656,11 +2477,8 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>process diagram</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2696,9 +2514,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2730,11 +2545,8 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>process diagram</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2770,9 +2582,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2804,11 +2613,8 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2844,9 +2650,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2881,9 +2684,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2915,11 +2715,8 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2955,9 +2752,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2992,9 +2786,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3026,11 +2817,8 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
   </sheetData>
